--- a/Data/Original/Legislative Violence Research 2.xlsx
+++ b/Data/Original/Legislative Violence Research 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="-80" windowWidth="21600" windowHeight="14660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,1090 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="328">
+  <si>
+    <t>Social coalition (government)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepali Congress Party (government) and Communist Party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepali Congress Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sify.com/news/nepal-parliament-s-special-meet-adjourned-within-minutes-news-international-kmtqajabddi.html</t>
+  </si>
+  <si>
+    <t>Maoists (opposition) and government party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">policy debate - political </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.sky.com/skynews/Home/Strange-News/Brawl-In-Nigeria-Parliament-Fight-Breaks-Out-In-Nigerian-National-Assembly-As-Members-Are-Suspended/Article/201006415653528?f=rss</t>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 to 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposition party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberal Democratic Party (Zhirinovski)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberal Democratic Party and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communist and Liberal Democratic Party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communist Party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberal Democratic Party, and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communist Party and Party of Democratic Forces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government Ministers and Opposition Party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 to 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 to 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coalition and opposition parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Radical Party (opposition), Communist Party (opposition), and other Leftist parties </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/latimes/access/59644632.html?dids=59644632:59644632&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Jul+22%2C+1994&amp;author=&amp;pub=Los+Angeles+Times+(pre-1997+Fulltext)&amp;desc=Angry+Italian+Lawmakers+Kill+Decree+Freeing+Corruption+Suspects&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>Forza Italia Party (government) and Northern League (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left (opposition) and Ultraconservative parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>People of Freedom Coalition (government) and opposition party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposition party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberal Democratic Party (government) and opposition parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socialist Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense minister and an ultranationalist leader (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuomingtan (government) and  Independent MP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Progressive Party (government)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic progressive Party (government) and Opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Progressive Party (government) and Nationalist Party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Party (opposition) and Pue Thai coalition (government)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortherland Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown - shooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist Action Party (opposition), Democratic Left Party (government), other opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justice and Development Party (government) and Republican People's Party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communist and Pro-Government Party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.earthtimes.org/articles/news/114213.html</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=ZUAhAAAAIBAJ&amp;sjid=qXsFAAAAIBAJ&amp;pg=3619,1809072&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/archivesearch?q=kenya+parliament+brawl+OR+scuffle&amp;scoring=a&amp;sa=N&amp;sugg=d&amp;as_ldate=1990&amp;as_hdate=1999&amp;lnav=hist4</t>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/latimes/access/12610274.html?dids=12610274:12610274&amp;FMT=CITE&amp;FMTS=CITE:FT&amp;type=current&amp;date=Jun+20%2C+1997&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=World+IN+BRIEF%3B+KENYA%3B+Parliament+in+Chaos%3B+Students%2C+Police+Clash&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>Korea South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=RU5WAAAAIBAJ&amp;sjid=k-sDAAAAIBAJ&amp;pg=5388,491370&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Democratic Union for Integration (opposition) and Party for Democratic Prosperity (government)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 to 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accusation of links to organised crime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist Party(government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationalist party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 to 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Party (opposition) and Grand National Party (government)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand National Party (opposition) and United New Democratic Party (pro-gov) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand National Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand National Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposition party and security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 to 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand National Party (government) and Democratic party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposition party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Democratic Revolution Party (government) and Conservative Party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=jiRKAAAAIBAJ&amp;sjid=JyMNAAAAIBAJ&amp;pg=5596,3479543&amp;dq=estonia+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=58AjAAAAIBAJ&amp;sjid=89AFAAAAIBAJ&amp;pg=6489,930318&amp;dq=france+national+assembly+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=l2IPAAAAIBAJ&amp;sjid=EocDAAAAIBAJ&amp;pg=6627,682673&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=OXtfAAAAIBAJ&amp;sjid=xC8MAAAAIBAJ&amp;pg=5133,4160309&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://australianetworknews.com/stories/200812/2456222.htm?desktop</t>
+  </si>
+  <si>
+    <t>http://www.asiaone.com/News/Latest%2BNews/Asia/Story/A1Story20090422-136833.html</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=PXQwAAAAIBAJ&amp;sjid=9DYDAAAAIBAJ&amp;pg=5161,1987934&amp;dq=bosnian+parliament+unruly+%7C+scuffle+%7C+brawl+%7C+scrap&amp;hl=en</t>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberal Democratic Party (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African National Union (government) and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rival parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatian Democratic Union (government) and Istrian Democratic Assembly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Popular Movement (opposition) and Government Coalition parties </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United National Movement and New Rights Party (both opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United National Movement (government) and  Conservative Party (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>National Democratic Congress (opposition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 to 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congress Party(government) and opposition parties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 to 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congress Party (government) and opposition party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiite and Sadrist lawmakers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.metro.co.uk/weird/849930-south-korean-parliament-descends-into-brawl-over-2011-budget</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F97EC099B28B973&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expulsion of journalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parties of Combatants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue Scuffle is Over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link to source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.boston.com/news/world/asia/articles/2006/05/09/afghan_legislator_attacked_for_views/</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=AT&amp;p_theme=at&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EADA03FF755BF27&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=kg5KAAAAIBAJ&amp;sjid=SIUMAAAAIBAJ&amp;pg=4684,5130561&amp;dq=haiti+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Islamic Unity Party, Islamic Society Party, Islamic Pary, and Mlalaijoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 to 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20 to 30 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>government and opposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=arUaAAAAIBAJ&amp;sjid=d0UEAAAAIBAJ&amp;pg=6525,934163&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://www.foxnews.com/story/0,2933,534367,00.html</t>
+  </si>
+  <si>
+    <t>http://www.reuters.com/article/2009/01/03/idUSSEO331201</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://allafrica.com/stories/200707270713.html</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F979F3AC7F8B43A&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a question that enraged member of the governmnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=75QgAAAAIBAJ&amp;sjid=_2cFAAAAIBAJ&amp;pg=2928,4106503&amp;dq=ecuador+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://www.eurasianet.org/departments/civilsociety/articles/eav070105.shtml</t>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.stv.tv/uk/215643-berlusconi-wins-first-round-in-parliament-showdown/</t>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=ST&amp;s_site=dfw&amp;p_multi=ST&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EAF91362351B941&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=1VJWAAAAIBAJ&amp;sjid=POwDAAAAIBAJ&amp;pg=5249,6490264&amp;dq=mexico+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>inauguration of president-elect Felipe Calderon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>president takes oath of office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www1.whdh.com/news/articles/world/MI34012/</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">voting for president </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ffwdweekly.com/article/news-views/international/realism-in-ukraine-2883/</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/1998/06/07/sports/soccer-fixed-matches-are-darkening-soccer-s-image.html?pagewanted=4</t>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/2005/03/31/international/31briefs.html</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote of no confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legislative Chamber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accusation of corruption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numbers of Legislators Involved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=09kzAAAAIBAJ&amp;sjid=Um4DAAAAIBAJ&amp;pg=6687,9693941&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://www.businessweek.com/ap/financialnews/D9FBJLEG0.htm</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.democracynow.org/2006/11/29/headlines</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.asylum.co.uk/2010/12/20/ukraine-politicians-fight-punch-up-brawl-ukrainian/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://abcnews.go.com/International/video?id=3515466</t>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.earthtimes.org/articles/news/312030,protest-as-indonesian-parliament-divided-over-bank-bail-out.html</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/2008/11/20/world/middleeast/20iraq.html</t>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.newsmax.com/InsideCover/knesset-scuffle-raid-flotilla/2010/06/02/id/360885</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F97E01091770DA6&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=_kBPAAAAIBAJ&amp;sjid=lwMEAAAAIBAJ&amp;pg=2745,749997&amp;dq=nepal+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>austrian air deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F979F52A1E937B2&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/latimes/access/674119692.html?dids=674119692:674119692&amp;FMT=CITE&amp;FMTS=CITE:AI&amp;type=historic&amp;date=Jul+23%2C+1984&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=Parliament+in+India+Opens+to+Brawl%2C+Walkout&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=mJxOAAAAIBAJ&amp;sjid=whQEAAAAIBAJ&amp;pg=2855,2147460&amp;dq=india+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/latimes/access/677283852.html?dids=677283852:677283852&amp;FMT=ABS&amp;FMTS=ABS:AI&amp;type=historic&amp;date=Mar+24%2C+1984&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=Unruly+Scenes+Enliven+World's+Largest+Democracy&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NR&amp;d_origin=transcripts&amp;z=NR&amp;p_theme=nr&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F56F847E3DCCB19&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/boston/access/59665094.html?FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Sep+10%2C+1988&amp;author=Philip+Bennett%2C+Globe+Staff&amp;pub=Boston+Globe+(pre-1997+Fulltext)&amp;desc=MEXICAN+LEGISLATORS+BRAWL+OVER+VOTE+SALINAS+IS+EXPECTED+TO+WIN+CONFIRMATION&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>http://www.dailymail.co.uk/news/worldnews/article-1293129/Not-Mass-brawl-breaks-Taiwanese-parliament-done.html</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=MH&amp;s_site=miami&amp;p_multi=MH&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0ECBC533B693509D&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://articles.cnn.com/2004-06-08/world/sirlanka.brawl_1_parliament-monk-brawl?_s=PM:WORLD</t>
+  </si>
+  <si>
+    <t>Pakistan People Party and Paksitan Muslim League</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.paktribune.com/news/index.shtml?212044</t>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/1992/12/04/world/scuffle-cuts-short-a-meeting-of-the-russian-congress.html</t>
+  </si>
+  <si>
+    <t>lower house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=AT&amp;p_theme=at&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EADA45674FF102D&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>hard-line legislators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=SJ&amp;s_site=mercurynews&amp;p_multi=SJ&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EB71DB948BF3C2B&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>http://www.telegraph.co.uk/news/worldnews/europe/italy/7877383/Brawl-breaks-out-among-MPs-in-Italys-parliament.html</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=108E5D04D3E64452&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>http://www.dailytimes.com.pk/default.asp?page=2007%5C01%5C20%5Cstory_20-1-2007_pg1_10</t>
+  </si>
+  <si>
+    <t>http://www.mysinchew.com/node/38011</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bangkokpost.com/auto/autoscoop/16696/</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/latimes/access/66426471.html?dids=66426471:66426471&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Mar+30%2C+1989&amp;author=&amp;pub=Los+Angeles+Times+(pre-1997+Fulltext)&amp;desc=Turkish+Lawmaker+Shot+to+Death+in+Parliament+Scuffle&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>http://goliath.ecnext.com/coms2/gi_0199-1905320/Sri-Lanka-lawmakers-scuffle-in.html</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.reuters.com/article/2007/05/08/us-taiwan-parliament-idUSTP21135920070508</t>
+  </si>
+  <si>
+    <t>election results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=jI0mAAAAIBAJ&amp;sjid=1AoEAAAAIBAJ&amp;pg=2426,954193&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=5npaAAAAIBAJ&amp;sjid=6B4EAAAAIBAJ&amp;pg=5490,4426859&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://www.dailytimes.com.pk/default.asp?page=2010%5C01%5C19%5Cstory_19-1-2010_pg7_40</t>
+  </si>
+  <si>
+    <t>http://news.bbc.co.uk/2/hi/asia-pacific/1248769.stm</t>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=SAAhAAAAIBAJ&amp;sjid=CnUFAAAAIBAJ&amp;pg=3094,2889151&amp;dq=india+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>policy debate - regional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - economic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F99F8CDC39DF068&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=KeMzAAAAIBAJ&amp;sjid=cjIHAAAAIBAJ&amp;pg=4879,4600078&amp;dq=italy+parliament+brawl+%7C+scuffle&amp;hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.sky.com/skynews/Home/Strange-News/VENEZUELA-Opposition-Politicians-Come-To-Blow-As-The-Nation-Tunes-In-To-Watch/Article/201102215928202?lpos=Strange_News_First_World_News_Article_Teaser_Region_4&amp;lid=ARTICLE_15928202_VENEZUELA%3A_Opposition_Politicians_Come_To_Blow_As_The_Nation_Tunes_In_To_Watch</t>
+  </si>
+  <si>
+    <t>supreme court reform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/2003/09/25/world/world-briefing-americas-venezuela-scuffle-in-parliament.html</t>
+  </si>
+  <si>
+    <t>lower house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.bbc.co.uk/2/hi/asia-pacific/3692855.stm</t>
+  </si>
+  <si>
+    <t>women making fun of each other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>president attempts to hold a secret ballot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threats by Zhirinovski</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent swearing in of opposition lawmaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversial trial of judges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversial trial of retired general</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro vs anti-western lawmakers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - economic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade bill blockade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - judicial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - economic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - regional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - economic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>election results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill blockade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - political</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F8A14E8D2AC6A9F&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=-7YeAAAAIBAJ&amp;sjid=S88EAAAAIBAJ&amp;pg=3627,866188&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>lower house</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://news.google.com/newspapers?id=XFlGAAAAIBAJ&amp;sjid=NukMAAAAIBAJ&amp;pg=6190,5712007&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F8920004D2136C3&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/thestar/access/472370481.html?FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Nov+23%2C+1990&amp;author=(REUTER)&amp;pub=Toronto+Star&amp;desc=Bulgarian+deputies+scuffle+in+parliament&amp;pqatl=google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationalist lawmakers and others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lift on ban of communist party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pqasb.pqarchiver.com/baltsun/access/111944764.html?dids=111944764:111944764&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Oct+19%2C+1994&amp;author=&amp;pub=The+Sun&amp;desc=IN+THE+WORLD&amp;pqatl=google</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vote on dismissal of the speaker </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=10B7E4FDA8925658&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
+  </si>
+  <si>
+    <t>debate over regional violence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nytimes.com/1997/05/14/world/a-debate-that-got-out-of-hand-in-ukraine.html</t>
+  </si>
+  <si>
+    <t>dismissal of central bank chief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">policy debate - military </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - judicial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - social</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - judicial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - UN military</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy debate - pension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.telegraph.co.uk/news/worldnews/europe/1320631/Turkish-MP-dies-after-brawl-in-parliament.html</t>
+  </si>
+  <si>
+    <t>http://www.26sep.net/nprint.php?lng=english&amp;sid=28085</t>
+  </si>
+  <si>
+    <t>http://www.reuters.com/article/2010/05/07/us-turkey-constitution-vote-idUSTRE64634M20100507</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F97EEB2274310EF&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
   </si>
@@ -159,1085 +1242,6 @@
   </si>
   <si>
     <t>accusation of corruption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F8920004D2136C3&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Yugoslavia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kenya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/thestar/access/472370481.html?FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Nov+23%2C+1990&amp;author=(REUTER)&amp;pub=Toronto+Star&amp;desc=Bulgarian+deputies+scuffle+in+parliament&amp;pqatl=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationalist lawmakers and others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lift on ban of communist party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/baltsun/access/111944764.html?dids=111944764:111944764&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Oct+19%2C+1994&amp;author=&amp;pub=The+Sun&amp;desc=IN+THE+WORLD&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">vote on dismissal of the speaker </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=10B7E4FDA8925658&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>debate over regional violence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/1997/05/14/world/a-debate-that-got-out-of-hand-in-ukraine.html</t>
-  </si>
-  <si>
-    <t>dismissal of central bank chief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">policy debate - military </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - judicial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - judicial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - UN military</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - pension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.telegraph.co.uk/news/worldnews/europe/1320631/Turkish-MP-dies-after-brawl-in-parliament.html</t>
-  </si>
-  <si>
-    <t>http://www.26sep.net/nprint.php?lng=english&amp;sid=28085</t>
-  </si>
-  <si>
-    <t>http://www.reuters.com/article/2010/05/07/us-turkey-constitution-vote-idUSTRE64634M20100507</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.sky.com/skynews/Home/Strange-News/VENEZUELA-Opposition-Politicians-Come-To-Blow-As-The-Nation-Tunes-In-To-Watch/Article/201102215928202?lpos=Strange_News_First_World_News_Article_Teaser_Region_4&amp;lid=ARTICLE_15928202_VENEZUELA%3A_Opposition_Politicians_Come_To_Blow_As_The_Nation_Tunes_In_To_Watch</t>
-  </si>
-  <si>
-    <t>supreme court reform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/2003/09/25/world/world-briefing-americas-venezuela-scuffle-in-parliament.html</t>
-  </si>
-  <si>
-    <t>lower house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.bbc.co.uk/2/hi/asia-pacific/3692855.stm</t>
-  </si>
-  <si>
-    <t>women making fun of each other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>president attempts to hold a secret ballot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>threats by Zhirinovski</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevent swearing in of opposition lawmaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controversial trial of judges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>controversial trial of retired general</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro vs anti-western lawmakers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - economic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade bill blockade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - social</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - judicial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - economic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - regional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - economic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>election results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bill blockade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - political</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=APAB&amp;d_place=APAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F8A14E8D2AC6A9F&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=-7YeAAAAIBAJ&amp;sjid=S88EAAAAIBAJ&amp;pg=3627,866188&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
-  </si>
-  <si>
-    <t>lower house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=XFlGAAAAIBAJ&amp;sjid=NukMAAAAIBAJ&amp;pg=6190,5712007&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://www.dailytimes.com.pk/default.asp?page=2007%5C01%5C20%5Cstory_20-1-2007_pg1_10</t>
-  </si>
-  <si>
-    <t>http://www.mysinchew.com/node/38011</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bangkokpost.com/auto/autoscoop/16696/</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/latimes/access/66426471.html?dids=66426471:66426471&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Mar+30%2C+1989&amp;author=&amp;pub=Los+Angeles+Times+(pre-1997+Fulltext)&amp;desc=Turkish+Lawmaker+Shot+to+Death+in+Parliament+Scuffle&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>http://goliath.ecnext.com/coms2/gi_0199-1905320/Sri-Lanka-lawmakers-scuffle-in.html</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.reuters.com/article/2007/05/08/us-taiwan-parliament-idUSTP21135920070508</t>
-  </si>
-  <si>
-    <t>election results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=jI0mAAAAIBAJ&amp;sjid=1AoEAAAAIBAJ&amp;pg=2426,954193&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=5npaAAAAIBAJ&amp;sjid=6B4EAAAAIBAJ&amp;pg=5490,4426859&amp;dq=taiwan+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://www.dailytimes.com.pk/default.asp?page=2010%5C01%5C19%5Cstory_19-1-2010_pg7_40</t>
-  </si>
-  <si>
-    <t>http://news.bbc.co.uk/2/hi/asia-pacific/1248769.stm</t>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=SAAhAAAAIBAJ&amp;sjid=CnUFAAAAIBAJ&amp;pg=3094,2889151&amp;dq=india+parliament+brawl+%7C+scuffle+%7C+melee&amp;hl=en</t>
-  </si>
-  <si>
-    <t>policy debate - regional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>policy debate - economic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F99F8CDC39DF068&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=KeMzAAAAIBAJ&amp;sjid=cjIHAAAAIBAJ&amp;pg=4879,4600078&amp;dq=italy+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mexico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/boston/access/59665094.html?FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Sep+10%2C+1988&amp;author=Philip+Bennett%2C+Globe+Staff&amp;pub=Boston+Globe+(pre-1997+Fulltext)&amp;desc=MEXICAN+LEGISLATORS+BRAWL+OVER+VOTE+SALINAS+IS+EXPECTED+TO+WIN+CONFIRMATION&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>http://www.dailymail.co.uk/news/worldnews/article-1293129/Not-Mass-brawl-breaks-Taiwanese-parliament-done.html</t>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=MH&amp;s_site=miami&amp;p_multi=MH&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0ECBC533B693509D&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://articles.cnn.com/2004-06-08/world/sirlanka.brawl_1_parliament-monk-brawl?_s=PM:WORLD</t>
-  </si>
-  <si>
-    <t>Pakistan People Party and Paksitan Muslim League</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.paktribune.com/news/index.shtml?212044</t>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/1992/12/04/world/scuffle-cuts-short-a-meeting-of-the-russian-congress.html</t>
-  </si>
-  <si>
-    <t>lower house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Russia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=AT&amp;p_theme=at&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EADA45674FF102D&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>hard-line legislators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=SJ&amp;s_site=mercurynews&amp;p_multi=SJ&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EB71DB948BF3C2B&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>http://www.telegraph.co.uk/news/worldnews/europe/italy/7877383/Brawl-breaks-out-among-MPs-in-Italys-parliament.html</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=108E5D04D3E64452&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>http://www.earthtimes.org/articles/news/312030,protest-as-indonesian-parliament-divided-over-bank-bail-out.html</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/2008/11/20/world/middleeast/20iraq.html</t>
-  </si>
-  <si>
-    <t>Israel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.newsmax.com/InsideCover/knesset-scuffle-raid-flotilla/2010/06/02/id/360885</t>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F97E01091770DA6&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=_kBPAAAAIBAJ&amp;sjid=lwMEAAAAIBAJ&amp;pg=2745,749997&amp;dq=nepal+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>austrian air deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F979F52A1E937B2&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/latimes/access/674119692.html?dids=674119692:674119692&amp;FMT=CITE&amp;FMTS=CITE:AI&amp;type=historic&amp;date=Jul+23%2C+1984&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=Parliament+in+India+Opens+to+Brawl%2C+Walkout&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joint session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=mJxOAAAAIBAJ&amp;sjid=whQEAAAAIBAJ&amp;pg=2855,2147460&amp;dq=india+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/latimes/access/677283852.html?dids=677283852:677283852&amp;FMT=ABS&amp;FMTS=ABS:AI&amp;type=historic&amp;date=Mar+24%2C+1984&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=Unruly+Scenes+Enliven+World's+Largest+Democracy&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NR&amp;d_origin=transcripts&amp;z=NR&amp;p_theme=nr&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F56F847E3DCCB19&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>http://www.eurasianet.org/departments/civilsociety/articles/eav070105.shtml</t>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.stv.tv/uk/215643-berlusconi-wins-first-round-in-parliament-showdown/</t>
-  </si>
-  <si>
-    <t>Russia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=ST&amp;s_site=dfw&amp;p_multi=ST&amp;p_theme=realcities&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EAF91362351B941&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=1VJWAAAAIBAJ&amp;sjid=POwDAAAAIBAJ&amp;pg=5249,6490264&amp;dq=mexico+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>inauguration of president-elect Felipe Calderon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>president takes oath of office</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www1.whdh.com/news/articles/world/MI34012/</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">voting for president </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ffwdweekly.com/article/news-views/international/realism-in-ukraine-2883/</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/1998/06/07/sports/soccer-fixed-matches-are-darkening-soccer-s-image.html?pagewanted=4</t>
-  </si>
-  <si>
-    <t>http://www.nytimes.com/2005/03/31/international/31briefs.html</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vote of no confidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nepal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legislative Chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accusation of corruption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Numbers of Legislators Involved</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=09kzAAAAIBAJ&amp;sjid=Um4DAAAAIBAJ&amp;pg=6687,9693941&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://www.businessweek.com/ap/financialnews/D9FBJLEG0.htm</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.democracynow.org/2006/11/29/headlines</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.asylum.co.uk/2010/12/20/ukraine-politicians-fight-punch-up-brawl-ukrainian/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://abcnews.go.com/International/video?id=3515466</t>
-  </si>
-  <si>
-    <t>Russia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Croatia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F97EC099B28B973&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expulsion of journalist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parties of Combatants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Issue Scuffle is Over</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link to source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.boston.com/news/world/asia/articles/2006/05/09/afghan_legislator_attacked_for_views/</t>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=AT&amp;p_theme=at&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0EADA03FF755BF27&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower house</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=kg5KAAAAIBAJ&amp;sjid=SIUMAAAAIBAJ&amp;pg=4684,5130561&amp;dq=haiti+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Islamic Unity Party, Islamic Society Party, Islamic Pary, and Mlalaijoya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 to 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">20 to 30 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=arUaAAAAIBAJ&amp;sjid=d0UEAAAAIBAJ&amp;pg=6525,934163&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://www.foxnews.com/story/0,2933,534367,00.html</t>
-  </si>
-  <si>
-    <t>http://www.reuters.com/article/2009/01/03/idUSSEO331201</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://allafrica.com/stories/200707270713.html</t>
-  </si>
-  <si>
-    <t>http://nl.newsbank.com/nl-search/we/Archives?p_product=NewsLibrary&amp;p_multi=BBAB&amp;d_place=BBAB&amp;p_theme=newslibrary2&amp;p_action=search&amp;p_maxdocs=200&amp;p_topdoc=1&amp;p_text_direct-0=0F979F3AC7F8B43A&amp;p_field_direct-0=document_id&amp;p_perpage=10&amp;p_sort=YMD_date:D&amp;s_trackval=GooglePM</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a question that enraged member of the governmnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=75QgAAAAIBAJ&amp;sjid=_2cFAAAAIBAJ&amp;pg=2928,4106503&amp;dq=ecuador+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=jiRKAAAAIBAJ&amp;sjid=JyMNAAAAIBAJ&amp;pg=5596,3479543&amp;dq=estonia+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joint session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=58AjAAAAIBAJ&amp;sjid=89AFAAAAIBAJ&amp;pg=6489,930318&amp;dq=france+national+assembly+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=l2IPAAAAIBAJ&amp;sjid=EocDAAAAIBAJ&amp;pg=6627,682673&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=OXtfAAAAIBAJ&amp;sjid=xC8MAAAAIBAJ&amp;pg=5133,4160309&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>http://australianetworknews.com/stories/200812/2456222.htm?desktop</t>
-  </si>
-  <si>
-    <t>http://www.asiaone.com/News/Latest%2BNews/Asia/Story/A1Story20090422-136833.html</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=PXQwAAAAIBAJ&amp;sjid=9DYDAAAAIBAJ&amp;pg=5161,1987934&amp;dq=bosnian+parliament+unruly+%7C+scuffle+%7C+brawl+%7C+scrap&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberal Democratic Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>African National Union (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single chamber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rival parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Croatian Democratic Union (government) and Istrian Democratic Assembly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Popular Movement (opposition) and Government Coalition parties </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>United National Movement and New Rights Party (both opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>United National Movement (government) and  Conservative Party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>National Democratic Congress (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 to 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congress Party(government) and opposition parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 to 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congress Party (government) and opposition party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shiite and Sadrist lawmakers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.metro.co.uk/weird/849930-south-korean-parliament-descends-into-brawl-over-2011-budget</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.earthtimes.org/articles/news/114213.html</t>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=ZUAhAAAAIBAJ&amp;sjid=qXsFAAAAIBAJ&amp;pg=3619,1809072&amp;dq=japan+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/archivesearch?q=kenya+parliament+brawl+OR+scuffle&amp;scoring=a&amp;sa=N&amp;sugg=d&amp;as_ldate=1990&amp;as_hdate=1999&amp;lnav=hist4</t>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/latimes/access/12610274.html?dids=12610274:12610274&amp;FMT=CITE&amp;FMTS=CITE:FT&amp;type=current&amp;date=Jun+20%2C+1997&amp;author=&amp;pub=Los+Angeles+Times&amp;desc=World+IN+BRIEF%3B+KENYA%3B+Parliament+in+Chaos%3B+Students%2C+Police+Clash&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>Korea South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.google.com/newspapers?id=RU5WAAAAIBAJ&amp;sjid=k-sDAAAAIBAJ&amp;pg=5388,491370&amp;dq=south+korea+parliament+brawl+%7C+scuffle&amp;hl=en</t>
-  </si>
-  <si>
-    <t>Democratic Union for Integration (opposition) and Party for Democratic Prosperity (government)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 to 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accusation of links to organised crime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist Party(government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 to 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic Party (opposition) and Grand National Party (government)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand National Party (opposition) and United New Democratic Party (pro-gov) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grand National Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grand National Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opposition party and security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 to 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grand National Party (government) and Democratic party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opposition party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic Revolution Party (government) and Conservative Party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rival parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communist Party and Party of Democratic Forces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Government Ministers and Opposition Party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 to 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 to 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coalition and opposition parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Radical Party (opposition), Communist Party (opposition), and other Leftist parties </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://pqasb.pqarchiver.com/latimes/access/59644632.html?dids=59644632:59644632&amp;FMT=ABS&amp;FMTS=ABS:FT&amp;type=current&amp;date=Jul+22%2C+1994&amp;author=&amp;pub=Los+Angeles+Times+(pre-1997+Fulltext)&amp;desc=Angry+Italian+Lawmakers+Kill+Decree+Freeing+Corruption+Suspects&amp;pqatl=google</t>
-  </si>
-  <si>
-    <t>Forza Italia Party (government) and Northern League (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left (opposition) and Ultraconservative parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>People of Freedom Coalition (government) and opposition party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opposition party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberal Democratic Party (government) and opposition parties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Socialist Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense minister and an ultranationalist leader (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuomingtan (government) and  Independent MP </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic Progressive Party (government)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic progressive Party (government) and Opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic Progressive Party (government) and Nationalist Party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Democratic Party (opposition) and Pue Thai coalition (government)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mortherland Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unknown - shooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationalist Action Party (opposition), Democratic Left Party (government), other opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Justice and Development Party (government) and Republican People's Party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communist and Pro-Government Party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social coalition (government)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nepali Congress Party (government) and Communist Party (opposition)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nepali Congress Party (government) and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sify.com/news/nepal-parliament-s-special-meet-adjourned-within-minutes-news-international-kmtqajabddi.html</t>
-  </si>
-  <si>
-    <t>Maoists (opposition) and government party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">policy debate - political </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://news.sky.com/skynews/Home/Strange-News/Brawl-In-Nigeria-Parliament-Fight-Breaks-Out-In-Nigerian-National-Assembly-As-Members-Are-Suspended/Article/201006415653528?f=rss</t>
-  </si>
-  <si>
-    <t>government and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 to 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opposition party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberal Democratic Party (Zhirinovski)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberal Democratic Party and opposition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communist and Liberal Democratic Party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communist Party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liberal Democratic Party, and opposition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1608,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1622,36 +1626,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1663,639 +1667,615 @@
         <v>2006</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2007</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>1990</v>
+        <v>2007</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" t="s">
-        <v>200</v>
+        <v>203</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>1994</v>
+        <v>2007</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F10" t="s">
-        <v>239</v>
+        <v>203</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I10" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1994</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>1981</v>
+        <v>1994</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
+        <v>125</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1984</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" t="s">
-        <v>200</v>
+        <v>125</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2008</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>2010</v>
-      </c>
-      <c r="E18" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
         <v>281</v>
       </c>
-      <c r="G18" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>1994</v>
+        <v>1981</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>1994</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="I21" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E22" t="s">
         <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>2010</v>
@@ -2304,1703 +2284,1703 @@
         <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>1987</v>
+        <v>2010</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="I26" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="I29" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>1998</v>
       </c>
       <c r="E30" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E32" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="I34" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2009</v>
       </c>
       <c r="E35" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>22</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>2009</v>
       </c>
       <c r="E36" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="I36" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E37" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>254</v>
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>9</v>
       </c>
       <c r="D39">
-        <v>1988</v>
+        <v>2007</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" t="s">
-        <v>228</v>
+        <v>125</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F40" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="B41">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>2006</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G43" t="s">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B45">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>1998</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
         <v>19</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2001</v>
-      </c>
-      <c r="E46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" t="s">
-        <v>312</v>
-      </c>
       <c r="H46" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="I47" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B48">
         <v>18</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>315</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
-        <v>314</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B49">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>2010</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
         <v>5</v>
       </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49">
-        <v>1999</v>
-      </c>
-      <c r="E49" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" t="s">
-        <v>228</v>
-      </c>
-      <c r="G49" t="s">
-        <v>228</v>
-      </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="I49" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="B50">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>1999</v>
+      </c>
+      <c r="E50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
         <v>6</v>
       </c>
-      <c r="D50">
-        <v>2010</v>
-      </c>
-      <c r="E50" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" t="s">
-        <v>261</v>
-      </c>
-      <c r="G50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H50" t="s">
-        <v>35</v>
-      </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>6</v>
       </c>
       <c r="D51">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
       </c>
       <c r="G51" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" t="s">
-        <v>319</v>
+        <v>191</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I52" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F53" t="s">
-        <v>254</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>241</v>
       </c>
       <c r="I54" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B55">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" t="s">
-        <v>228</v>
+        <v>203</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>1999</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="G57" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="B58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>325</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B60">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="1">
-        <v>11</v>
+        <v>233</v>
+      </c>
+      <c r="F61" t="s">
+        <v>97</v>
       </c>
       <c r="G61" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="I61" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>1993</v>
+        <v>2004</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62">
-        <v>40</v>
+        <v>233</v>
+      </c>
+      <c r="F62" s="1">
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="I62" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>1993</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" t="s">
-        <v>200</v>
+        <v>233</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64">
-        <v>6</v>
+        <v>265</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>62</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" t="s">
-        <v>200</v>
+        <v>233</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I65" t="s">
-        <v>104</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>1995</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="I66" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B67">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B68">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="I68" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="E69" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" t="s">
         <v>239</v>
-      </c>
-      <c r="G69" t="s">
-        <v>296</v>
-      </c>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>2007</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="G70" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F71" t="s">
-        <v>298</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>300</v>
+        <v>39</v>
       </c>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>2010</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>2010</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="I73" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="F74" t="s">
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="I74" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="B75">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2009</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75">
         <v>3</v>
       </c>
-      <c r="D75">
-        <v>1989</v>
-      </c>
-      <c r="E75" t="s">
-        <v>115</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
       <c r="G75" t="s">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
       </c>
       <c r="G76" t="s">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I76" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>2007</v>
+      </c>
+      <c r="E78" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
         <v>97</v>
       </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>2010</v>
-      </c>
-      <c r="E78" t="s">
-        <v>115</v>
-      </c>
-      <c r="F78" t="s">
-        <v>307</v>
-      </c>
-      <c r="G78" t="s">
-        <v>308</v>
-      </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="B79">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>1994</v>
+        <v>2010</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="B80">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="B81">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>278</v>
       </c>
       <c r="I81" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C82">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="G82" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4009,235 +3989,262 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E83" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="G83" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="I83" t="s">
-        <v>2</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D84">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84">
-        <v>20</v>
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
+        <v>248</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="I84" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B85">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
-      </c>
-      <c r="F85" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="I85" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D86">
         <v>2010</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="H86" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="I86" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="B87">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="I87" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="F88" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="I88" t="s">
-        <v>61</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B89">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>2013</v>
+      </c>
+      <c r="E90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" t="s">
+        <v>315</v>
+      </c>
+      <c r="G90" t="s">
+        <v>312</v>
+      </c>
+      <c r="H90" t="s">
+        <v>314</v>
+      </c>
+      <c r="I90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91">
         <v>26</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>2001</v>
       </c>
-      <c r="E90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F90">
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91">
         <v>2</v>
       </c>
-      <c r="G90" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" t="s">
-        <v>36</v>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="s">
+        <v>318</v>
+      </c>
+      <c r="I91" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A3:XFD29">
     <sortCondition ref="A4:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/Original/Legislative Violence Research 2.xlsx
+++ b/Data/Original/Legislative Violence Research 2.xlsx
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1685,6 +1685,12 @@
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:9">
